--- a/Data/固定g_in/核心质量5/summary.xlsx
+++ b/Data/固定g_in/核心质量5/summary.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20356"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University\Project\Data\固定g_in\核心质量5\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D787FA79-FAFF-42A6-8F53-D48FFED060F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="18455" windowHeight="9852" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18456" windowHeight="9852" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -51,15 +57,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="16"/>
       <color theme="1"/>
@@ -70,13 +72,12 @@
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Droid Sans Mono"/>
-      <charset val="134"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Droid Sans Mono"/>
-      <charset val="0"/>
     </font>
     <font>
       <sz val="16"/>
@@ -85,345 +86,20 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="Droid Sans Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -431,251 +107,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -692,7 +126,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -702,68 +136,24 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -777,7 +167,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -803,6 +192,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -810,7 +200,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="marker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -837,9 +227,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:trendline>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
@@ -857,8 +244,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.378560403195959"/>
-                  <c:y val="-0.112614450897295"/>
+                  <c:x val="-0.37856040319595902"/>
+                  <c:y val="-0.11261445089729499"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -880,36 +267,36 @@
                       </a:defRPr>
                     </a:pPr>
                     <a:r>
-                      <a:rPr sz="1400"/>
+                      <a:rPr lang="en-US" sz="1400"/>
                       <a:t>y = 2E-12x</a:t>
                     </a:r>
                     <a:r>
-                      <a:rPr sz="1400" baseline="35000"/>
+                      <a:rPr lang="en-US" sz="1400" baseline="35000"/>
                       <a:t>2</a:t>
                     </a:r>
                     <a:r>
-                      <a:rPr sz="1400"/>
+                      <a:rPr lang="en-US" sz="1400"/>
                       <a:t> - 2E-07x + 5.2828</a:t>
                     </a:r>
                     <a:br>
-                      <a:rPr sz="1400"/>
+                      <a:rPr lang="en-US" sz="1400"/>
                     </a:br>
                     <a:r>
-                      <a:rPr sz="1400"/>
+                      <a:rPr lang="en-US" sz="1400"/>
                       <a:t>R</a:t>
                     </a:r>
                     <a:r>
-                      <a:rPr sz="1400" baseline="35000"/>
+                      <a:rPr lang="en-US" sz="1400" baseline="35000"/>
                       <a:t>2</a:t>
                     </a:r>
                     <a:r>
-                      <a:rPr sz="1400"/>
+                      <a:rPr lang="en-US" sz="1400"/>
                       <a:t> = 0.9968</a:t>
                     </a:r>
-                    <a:endParaRPr sz="1400"/>
                   </a:p>
                 </c:rich>
               </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -934,6 +321,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -984,39 +372,44 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5.237357956</c:v>
+                  <c:v>5.2373579560000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.329619116</c:v>
+                  <c:v>5.3296191159999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.43070479757691</c:v>
+                  <c:v>5.4307047975769098</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>5.52259412456932</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.64549743683565</c:v>
+                  <c:v>5.6454974368356501</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>5.80344674495998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.00208422407816</c:v>
+                  <c:v>6.0020842240781596</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.24916901190679</c:v>
+                  <c:v>6.2491690119067904</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.55546580296553</c:v>
+                  <c:v>6.5554658029655304</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.93641414484337</c:v>
+                  <c:v>6.9364141448433703</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C460-4831-B5D0-763E1C7CAC12}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1084,6 +477,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="451011555"/>
@@ -1146,6 +540,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="87086386"/>
@@ -1186,6 +581,7 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1197,7 +593,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -1217,8 +613,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0521650822581403"/>
-          <c:y val="0.0919821826280624"/>
+          <c:x val="5.2165082258140302E-2"/>
+          <c:y val="9.1982182628062403E-2"/>
           <c:w val="0.907519811161693"/>
           <c:h val="0.743536206130609"/>
         </c:manualLayout>
@@ -1253,9 +649,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:trendline>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
@@ -1272,10 +665,11 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.561666666666667"/>
+                  <c:x val="-0.56166666666666698"/>
                   <c:y val="-0.241666666666667"/>
                 </c:manualLayout>
               </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -1300,6 +694,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1371,60 +766,65 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>0.0118320224968507</c:v>
+                  <c:v>1.1832022496850669E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0493741788085602</c:v>
+                  <c:v>4.937417880856021E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.11314429372028</c:v>
+                  <c:v>0.11314429372028023</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.20503362071269</c:v>
+                  <c:v>0.20503362071269038</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.32793693297902</c:v>
+                  <c:v>0.32793693297902049</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.48588624110335</c:v>
+                  <c:v>0.48588624110335044</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.68452372022153</c:v>
+                  <c:v>0.68452372022152996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.931609165240681</c:v>
+                  <c:v>0.9316091652406806</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.2379052991089</c:v>
+                  <c:v>1.2379052991089008</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.61885364098674</c:v>
+                  <c:v>1.6188536409867407</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.09551575756064</c:v>
+                  <c:v>2.0955157575606407</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.70131530304604</c:v>
+                  <c:v>2.7013153030460408</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.48663392127754</c:v>
+                  <c:v>3.4866339212775408</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.53469172380438</c:v>
+                  <c:v>4.5346917238043805</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>5.99267535454387</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.14957874082537</c:v>
+                  <c:v>8.1495787408253708</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>11.6684870595337</c:v>
+                  <c:v>11.668487059533671</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6918-4DDE-8A29-C06A4EA6CF91}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1492,6 +892,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="645565009"/>
@@ -1553,6 +954,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="54784855"/>
@@ -1569,7 +971,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1595,6 +996,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1624,6 +1026,7 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2747,28 +2150,34 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1402715</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>193675</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>175895</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>41275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>93980</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>200660</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3620135" y="1489075"/>
-        <a:ext cx="9723120" cy="4045585"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2782,7 +2191,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -2796,14 +2205,20 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>34925</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="图表 4"/>
+        <xdr:cNvPr id="5" name="图表 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1351280" y="1537335"/>
-        <a:ext cx="7673975" cy="2909570"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3068,25 +2483,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C11"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="9.1875"/>
-    <col min="3" max="3" width="13.6302083333333" customWidth="1"/>
+    <col min="3" max="3" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3103,28 +2518,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="2:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B2" s="2">
         <v>100000</v>
       </c>
       <c r="C2" s="3">
-        <v>5.237357956</v>
+        <v>5.2373579560000003</v>
       </c>
       <c r="D2">
         <f>0.000000000002*B2^2-0.0000002*B2+5.2828</f>
-        <v>5.2828</v>
+        <v>5.2827999999999999</v>
       </c>
       <c r="E2">
         <f>0.000000000000000002*B2^3-0.000000000001*B2^2+0.000001*B2^1+5.1362</f>
-        <v>5.2282</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5">
+        <v>5.2281999999999993</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B3" s="2">
         <v>200000</v>
       </c>
       <c r="C3" s="3">
-        <v>5.329619116</v>
+        <v>5.3296191159999999</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D11" si="0">0.000000000002*B3^2-0.0000002*B3+5.2828</f>
@@ -3132,15 +2547,15 @@
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E11" si="1">0.000000000000000002*B3^3-0.000000000001*B3^2+0.000001*B3^1+5.1362</f>
-        <v>5.3122</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5">
+        <v>5.3121999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B4" s="2">
         <v>300000</v>
       </c>
       <c r="C4">
-        <v>5.43070479757691</v>
+        <v>5.4307047975769098</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
@@ -3148,10 +2563,10 @@
       </c>
       <c r="E4">
         <f t="shared" si="1"/>
-        <v>5.4002</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5">
+        <v>5.4001999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B5" s="2">
         <v>400000</v>
       </c>
@@ -3160,30 +2575,30 @@
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>5.5228</v>
+        <v>5.5228000000000002</v>
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
         <v>5.5042</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B6" s="2">
         <v>500000</v>
       </c>
       <c r="C6">
-        <v>5.64549743683565</v>
+        <v>5.6454974368356501</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>5.6828</v>
+        <v>5.6828000000000003</v>
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>5.6362</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5">
+        <v>5.6361999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B7" s="2">
         <v>600000</v>
       </c>
@@ -3192,35 +2607,35 @@
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>5.8828</v>
+        <v>5.8827999999999996</v>
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
-        <v>5.8082</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
+        <v>5.8081999999999994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B8" s="2">
         <v>700000</v>
       </c>
       <c r="C8">
-        <v>6.00208422407816</v>
+        <v>6.0020842240781596</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>6.1228</v>
+        <v>6.1227999999999998</v>
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>6.0322</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5">
+        <v>6.0321999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B9" s="2">
         <v>800000</v>
       </c>
       <c r="C9">
-        <v>6.24916901190679</v>
+        <v>6.2491690119067904</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
@@ -3228,68 +2643,67 @@
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
-        <v>6.3202</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5">
+        <v>6.3201999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B10" s="2">
         <v>900000</v>
       </c>
       <c r="C10">
-        <v>6.55546580296553</v>
+        <v>6.5554658029655304</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>6.7228</v>
+        <v>6.7227999999999994</v>
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
-        <v>6.6842</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
+        <v>6.6841999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B11" s="2">
         <v>1000000</v>
       </c>
       <c r="C11">
-        <v>6.93641414484337</v>
+        <v>6.9364141448433703</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>7.0828</v>
+        <v>7.0827999999999998</v>
       </c>
       <c r="E11">
         <f t="shared" si="1"/>
-        <v>7.1362</v>
+        <v>7.1361999999999997</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.265625"/>
+    <col min="1" max="1" width="12.25"/>
     <col min="2" max="2" width="9.1875"/>
     <col min="3" max="4" width="12.3125"/>
     <col min="6" max="6" width="12.3125"/>
     <col min="8" max="8" width="12.3125"/>
-    <col min="10" max="10" width="12.265625"/>
+    <col min="10" max="10" width="12.25"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" customHeight="1" spans="2:10">
+    <row r="1" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -3309,55 +2723,55 @@
         <v>5</v>
       </c>
       <c r="J1">
-        <v>5.31698567511048</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>5.3169856751104803</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>0.0349*EXP(0.3605*B2)</f>
-        <v>0.0500482144203818</v>
+        <v>5.0048214420381806E-2</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="C2" s="5">
-        <v>5.32939252635348</v>
+        <v>5.3293925263534803</v>
       </c>
       <c r="D2">
         <f>C2-5.31756050385663</f>
-        <v>0.0118320224968507</v>
+        <v>1.1832022496850669E-2</v>
       </c>
       <c r="E2">
         <f>0.0017*B2^3-0.0101*B2^2+0.1107*B2+5.1362</f>
-        <v>5.2385</v>
+        <v>5.2384999999999993</v>
       </c>
       <c r="F2">
         <f>ABS(E2-C2)/C2</f>
-        <v>0.0170549506166085</v>
+        <v>1.7054950616608496E-2</v>
       </c>
       <c r="G2">
         <f>0.018*B2^2-0.0193*B2+5.2828</f>
-        <v>5.2815</v>
+        <v>5.2815000000000003</v>
       </c>
       <c r="H2">
         <f>ABS(G2-C2)/C2</f>
-        <v>0.00898648881962713</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>8.9864888196271343E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <f t="shared" ref="A3:A18" si="0">0.0349*EXP(0.3605*B3)</f>
-        <v>0.0717714546323356</v>
+        <v>7.1771454632335627E-2</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
       </c>
       <c r="C3" s="3">
-        <v>5.36693468266519</v>
+        <v>5.3669346826651898</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D18" si="1">C3-5.31756050385663</f>
-        <v>0.0493741788085602</v>
+        <v>4.937417880856021E-2</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E17" si="2">0.0017*B3^3-0.0101*B3^2+0.1107*B3+5.1362</f>
@@ -3365,53 +2779,53 @@
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F17" si="3">ABS(E3-C3)/C3</f>
-        <v>0.00673283443934994</v>
+        <v>6.7328344393499384E-3</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G17" si="4">0.018*B3^2-0.0193*B3+5.2828</f>
-        <v>5.3162</v>
+        <v>5.3162000000000003</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H17" si="5">ABS(G3-C3)/C3</f>
-        <v>0.00945319547656484</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>9.4531954765648442E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <f t="shared" si="0"/>
-        <v>0.102923585979995</v>
+        <v>0.10292358597999536</v>
       </c>
       <c r="B4" s="2">
         <v>3</v>
       </c>
       <c r="C4">
-        <v>5.43070479757691</v>
+        <v>5.4307047975769098</v>
       </c>
       <c r="D4">
         <f t="shared" si="1"/>
-        <v>0.11314429372028</v>
+        <v>0.11314429372028023</v>
       </c>
       <c r="E4">
         <f t="shared" si="2"/>
-        <v>5.4233</v>
+        <v>5.4232999999999993</v>
       </c>
       <c r="F4">
         <f t="shared" si="3"/>
-        <v>0.00136350581608015</v>
+        <v>1.3635058160801487E-3</v>
       </c>
       <c r="G4">
         <f t="shared" si="4"/>
-        <v>5.3869</v>
+        <v>5.3868999999999998</v>
       </c>
       <c r="H4">
         <f t="shared" si="5"/>
-        <v>0.00806613491428497</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>8.066134914284975E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <f t="shared" si="0"/>
-        <v>0.147597183382275</v>
+        <v>0.14759718338227537</v>
       </c>
       <c r="B5" s="2">
         <v>4</v>
@@ -3421,26 +2835,26 @@
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
-        <v>0.20503362071269</v>
+        <v>0.20503362071269038</v>
       </c>
       <c r="E5">
         <f t="shared" si="2"/>
-        <v>5.5262</v>
+        <v>5.5261999999999993</v>
       </c>
       <c r="F5">
         <f t="shared" si="3"/>
-        <v>0.000652931457453533</v>
+        <v>6.5293145745353256E-4</v>
       </c>
       <c r="G5">
         <f t="shared" si="4"/>
-        <v>5.4936</v>
+        <v>5.4935999999999998</v>
       </c>
       <c r="H5">
         <f t="shared" si="5"/>
-        <v>0.00525009151773964</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>5.2500915177396395E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>0.211661188589127</v>
@@ -3449,33 +2863,33 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>5.64549743683565</v>
+        <v>5.6454974368356501</v>
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
-        <v>0.32793693297902</v>
+        <v>0.32793693297902049</v>
       </c>
       <c r="E6">
         <f t="shared" si="2"/>
-        <v>5.6497</v>
+        <v>5.6496999999999993</v>
       </c>
       <c r="F6">
         <f t="shared" si="3"/>
-        <v>0.000744409719669409</v>
+        <v>7.4440971966940905E-4</v>
       </c>
       <c r="G6">
         <f t="shared" si="4"/>
-        <v>5.6363</v>
+        <v>5.6363000000000003</v>
       </c>
       <c r="H6">
         <f t="shared" si="5"/>
-        <v>0.00162916322937966</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>1.6291632293796625E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
         <f t="shared" si="0"/>
-        <v>0.303531935558209</v>
+        <v>0.30353193555820901</v>
       </c>
       <c r="B7" s="2">
         <v>6</v>
@@ -3485,285 +2899,285 @@
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>0.48588624110335</v>
+        <v>0.48588624110335044</v>
       </c>
       <c r="E7">
         <f t="shared" si="2"/>
-        <v>5.804</v>
+        <v>5.8039999999999994</v>
       </c>
       <c r="F7">
         <f t="shared" si="3"/>
-        <v>9.53321473139781e-5</v>
+        <v>9.5332147313978088E-5</v>
       </c>
       <c r="G7">
         <f t="shared" si="4"/>
-        <v>5.815</v>
+        <v>5.8149999999999995</v>
       </c>
       <c r="H7">
         <f t="shared" si="5"/>
-        <v>0.00199075748391297</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>1.9907574839129745E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <f t="shared" si="0"/>
-        <v>0.435278836511483</v>
+        <v>0.43527883651148308</v>
       </c>
       <c r="B8" s="2">
         <v>7</v>
       </c>
       <c r="C8">
-        <v>6.00208422407816</v>
+        <v>6.0020842240781596</v>
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
-        <v>0.68452372022153</v>
+        <v>0.68452372022152996</v>
       </c>
       <c r="E8">
         <f t="shared" si="2"/>
-        <v>5.9993</v>
+        <v>5.9992999999999999</v>
       </c>
       <c r="F8">
         <f t="shared" si="3"/>
-        <v>0.00046387620936581</v>
+        <v>4.6387620936580952E-4</v>
       </c>
       <c r="G8">
         <f t="shared" si="4"/>
-        <v>6.0297</v>
+        <v>6.0297000000000001</v>
       </c>
       <c r="H8">
         <f t="shared" si="5"/>
-        <v>0.00460103105702118</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>4.6010310570211831E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
         <f t="shared" si="0"/>
-        <v>0.624209986887708</v>
+        <v>0.62420998688770835</v>
       </c>
       <c r="B9" s="2">
         <v>8</v>
       </c>
       <c r="C9">
-        <v>6.24916966909731</v>
+        <v>6.2491696690973102</v>
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
-        <v>0.931609165240681</v>
+        <v>0.9316091652406806</v>
       </c>
       <c r="E9">
         <f t="shared" si="2"/>
-        <v>6.2458</v>
+        <v>6.2457999999999991</v>
       </c>
       <c r="F9">
         <f t="shared" si="3"/>
-        <v>0.000539218692360743</v>
+        <v>5.3921869236074279E-4</v>
       </c>
       <c r="G9">
         <f t="shared" si="4"/>
-        <v>6.2804</v>
+        <v>6.2804000000000002</v>
       </c>
       <c r="H9">
         <f t="shared" si="5"/>
-        <v>0.00499751687926265</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>4.9975168792626519E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
         <f t="shared" si="0"/>
-        <v>0.89514599619197</v>
+        <v>0.89514599619196966</v>
       </c>
       <c r="B10" s="2">
         <v>9</v>
       </c>
       <c r="C10">
-        <v>6.55546580296553</v>
+        <v>6.5554658029655304</v>
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
-        <v>1.2379052991089</v>
+        <v>1.2379052991089008</v>
       </c>
       <c r="E10">
         <f t="shared" si="2"/>
-        <v>6.5537</v>
+        <v>6.5536999999999992</v>
       </c>
       <c r="F10">
         <f t="shared" si="3"/>
-        <v>0.000269363462277904</v>
+        <v>2.6936346227790373E-4</v>
       </c>
       <c r="G10">
         <f t="shared" si="4"/>
-        <v>6.5671</v>
+        <v>6.5670999999999999</v>
       </c>
       <c r="H10">
         <f t="shared" si="5"/>
-        <v>0.00177473232019707</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>1.7747323201970681E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
         <f t="shared" si="0"/>
-        <v>1.28368076661782</v>
+        <v>1.2836807666178218</v>
       </c>
       <c r="B11" s="2">
         <v>10</v>
       </c>
       <c r="C11">
-        <v>6.93641414484337</v>
+        <v>6.9364141448433703</v>
       </c>
       <c r="D11">
         <f t="shared" si="1"/>
-        <v>1.61885364098674</v>
+        <v>1.6188536409867407</v>
       </c>
       <c r="E11">
         <f t="shared" si="2"/>
-        <v>6.9332</v>
+        <v>6.9331999999999994</v>
       </c>
       <c r="F11">
         <f t="shared" si="3"/>
-        <v>0.000463372684539078</v>
+        <v>4.6337268453907764E-4</v>
       </c>
       <c r="G11">
         <f t="shared" si="4"/>
-        <v>6.8898</v>
+        <v>6.8897999999999993</v>
       </c>
       <c r="H11">
         <f t="shared" si="5"/>
-        <v>0.00672020785812287</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>6.720207858122865E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12">
         <f t="shared" si="0"/>
-        <v>1.84085760043005</v>
+        <v>1.8408576004300528</v>
       </c>
       <c r="B12" s="2">
         <v>11</v>
       </c>
       <c r="C12">
-        <v>7.41307626141727</v>
+        <v>7.4130762614172703</v>
       </c>
       <c r="D12">
         <f t="shared" si="1"/>
-        <v>2.09551575756064</v>
+        <v>2.0955157575606407</v>
       </c>
       <c r="E12">
         <f t="shared" si="2"/>
-        <v>7.3945</v>
+        <v>7.394499999999999</v>
       </c>
       <c r="F12">
         <f t="shared" si="3"/>
-        <v>0.0025058775550381</v>
+        <v>2.5058775550381033E-3</v>
       </c>
       <c r="G12">
         <f t="shared" si="4"/>
-        <v>7.2485</v>
+        <v>7.2484999999999999</v>
       </c>
       <c r="H12">
         <f t="shared" si="5"/>
-        <v>0.0222008051197096</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>2.2200805119709614E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13">
         <f t="shared" si="0"/>
-        <v>2.63987495426111</v>
+        <v>2.6398749542611109</v>
       </c>
       <c r="B13" s="2">
         <v>12</v>
       </c>
       <c r="C13" s="5">
-        <v>8.01887580690267</v>
+        <v>8.0188758069026704</v>
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
-        <v>2.70131530304604</v>
+        <v>2.7013153030460408</v>
       </c>
       <c r="E13">
         <f t="shared" si="2"/>
-        <v>7.9478</v>
+        <v>7.9477999999999991</v>
       </c>
       <c r="F13">
         <f t="shared" si="3"/>
-        <v>0.00886356250105396</v>
+        <v>8.8635625010539624E-3</v>
       </c>
       <c r="G13">
         <f t="shared" si="4"/>
-        <v>7.6432</v>
+        <v>7.6431999999999993</v>
       </c>
       <c r="H13">
         <f t="shared" si="5"/>
-        <v>0.0468489369269553</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>4.6848936926955312E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14">
         <f t="shared" si="0"/>
-        <v>3.78570280097008</v>
+        <v>3.7857028009700771</v>
       </c>
       <c r="B14" s="2">
         <v>13</v>
       </c>
       <c r="C14">
-        <v>8.80419442513417</v>
+        <v>8.8041944251341704</v>
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
-        <v>3.48663392127754</v>
+        <v>3.4866339212775408</v>
       </c>
       <c r="E14">
         <f t="shared" si="2"/>
-        <v>8.6033</v>
+        <v>8.6032999999999991</v>
       </c>
       <c r="F14">
         <f t="shared" si="3"/>
-        <v>0.0228180359762</v>
+        <v>2.2818035976200041E-2</v>
       </c>
       <c r="G14">
         <f t="shared" si="4"/>
-        <v>8.0739</v>
+        <v>8.0739000000000001</v>
       </c>
       <c r="H14">
         <f t="shared" si="5"/>
-        <v>0.0829484663638651</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>8.2948466363865089E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15">
         <f t="shared" si="0"/>
-        <v>5.42887293738654</v>
+        <v>5.4288729373865445</v>
       </c>
       <c r="B15" s="2">
         <v>14</v>
       </c>
       <c r="C15">
-        <v>9.85225222766101</v>
+        <v>9.8522522276610101</v>
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
-        <v>4.53469172380438</v>
+        <v>4.5346917238043805</v>
       </c>
       <c r="E15">
         <f t="shared" si="2"/>
-        <v>9.3712</v>
+        <v>9.3711999999999982</v>
       </c>
       <c r="F15">
         <f t="shared" si="3"/>
-        <v>0.0488266252776617</v>
+        <v>4.8826625277661698E-2</v>
       </c>
       <c r="G15">
         <f t="shared" si="4"/>
-        <v>8.5406</v>
+        <v>8.5405999999999995</v>
       </c>
       <c r="H15">
         <f t="shared" si="5"/>
-        <v>0.133132221684138</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>0.13313222168413824</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16">
         <f t="shared" si="0"/>
-        <v>7.78525492353381</v>
+        <v>7.7852549235338051</v>
       </c>
       <c r="B16" s="2">
         <v>15</v>
@@ -3777,25 +3191,25 @@
       </c>
       <c r="E16">
         <f t="shared" si="2"/>
-        <v>10.2617</v>
+        <v>10.261699999999999</v>
       </c>
       <c r="F16">
         <f t="shared" si="3"/>
-        <v>0.0927068074908206</v>
+        <v>9.2706807490819637E-2</v>
       </c>
       <c r="G16">
         <f t="shared" si="4"/>
-        <v>9.0433</v>
+        <v>9.0433000000000003</v>
       </c>
       <c r="H16">
         <f t="shared" si="5"/>
-        <v>0.200432235612202</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>0.20043223561220153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17">
         <f t="shared" si="0"/>
-        <v>11.1644156942795</v>
+        <v>11.164415694279457</v>
       </c>
       <c r="B17" s="2">
         <v>16</v>
@@ -3805,7 +3219,7 @@
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
-        <v>8.14957874082537</v>
+        <v>8.1495787408253708</v>
       </c>
       <c r="E17">
         <f t="shared" si="2"/>
@@ -3813,58 +3227,57 @@
       </c>
       <c r="F17">
         <f t="shared" si="3"/>
-        <v>0.162034356743114</v>
+        <v>0.16203435674311445</v>
       </c>
       <c r="G17">
         <f t="shared" si="4"/>
-        <v>9.582</v>
+        <v>9.5820000000000007</v>
       </c>
       <c r="H17">
         <f t="shared" si="5"/>
-        <v>0.288490315136244</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>0.28849031513624479</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18">
         <f t="shared" si="0"/>
-        <v>16.0102885543144</v>
+        <v>16.010288554314442</v>
       </c>
       <c r="B18" s="2">
         <v>17</v>
       </c>
       <c r="C18">
-        <v>16.9860475633903</v>
+        <v>16.986047563390301</v>
       </c>
       <c r="D18">
         <f t="shared" si="1"/>
-        <v>11.6684870595337</v>
+        <v>11.668487059533671</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.3125"/>
-    <col min="2" max="2" width="9.13541666666667"/>
-    <col min="3" max="3" width="12.265625"/>
+    <col min="2" max="2" width="9.125"/>
+    <col min="3" max="3" width="12.25"/>
     <col min="4" max="6" width="12.3125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -3884,15 +3297,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>5.20213873843725</v>
+        <v>5.2021387384372497</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="C2" s="3">
-        <v>5.237357956</v>
+        <v>5.2373579560000003</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
@@ -3902,55 +3315,55 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>10.4023126351441</v>
+        <v>10.402312635144099</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
       </c>
       <c r="C3" s="3">
-        <v>5.329619116</v>
+        <v>5.3296191159999999</v>
       </c>
       <c r="D3">
         <f>C3/C2</f>
-        <v>1.01761597369802</v>
+        <v>1.0176159736980177</v>
       </c>
       <c r="E3">
         <f>A3/5.20213873843725</f>
-        <v>1.99962230116704</v>
+        <v>1.9996223011670406</v>
       </c>
       <c r="F3">
         <f>LOG(D3)/LOG(E3)</f>
-        <v>0.0252000886178776</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>2.5200088617874407E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>15.6024945326188</v>
+        <v>15.602494532618801</v>
       </c>
       <c r="B4" s="2">
         <v>3</v>
       </c>
       <c r="C4">
-        <v>5.43070479757691</v>
+        <v>5.4307047975769098</v>
       </c>
       <c r="D4">
         <f>C4/C2</f>
-        <v>1.03691686594677</v>
+        <v>1.0369168659467716</v>
       </c>
       <c r="E4">
         <f t="shared" ref="E4:E17" si="0">A4/5.20213873843725</f>
-        <v>2.99924614031072</v>
+        <v>2.9992461403107202</v>
       </c>
       <c r="F4">
         <f t="shared" ref="F4:F17" si="1">LOG(D4)/LOG(E4)</f>
-        <v>0.0330053226247989</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>3.3005322624800285E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>20.8026201279096</v>
+        <v>20.802620127909599</v>
       </c>
       <c r="B5" s="2">
         <v>4</v>
@@ -3960,43 +3373,43 @@
       </c>
       <c r="D5">
         <f>C5/C2</f>
-        <v>1.05446184335034</v>
+        <v>1.0544618433503383</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>3.99885915656275</v>
+        <v>3.998859156562752</v>
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
-        <v>0.0382613182885535</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>3.8261318288552303E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>26.0028197346328</v>
+        <v>26.002819734632801</v>
       </c>
       <c r="B6" s="2">
         <v>5</v>
       </c>
       <c r="C6">
-        <v>5.64549743683565</v>
+        <v>5.6454974368356501</v>
       </c>
       <c r="D6">
         <f>C6/C2</f>
-        <v>1.07792850598804</v>
+        <v>1.077928505988039</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>4.998486399931</v>
+        <v>4.9984863999310001</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>0.0466344604246503</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>4.6634460424649749E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>31.2029944402269</v>
+        <v>31.202994440226899</v>
       </c>
       <c r="B7" s="2">
         <v>6</v>
@@ -4006,72 +3419,72 @@
       </c>
       <c r="D7">
         <f>C7/C2</f>
-        <v>1.10808670969519</v>
+        <v>1.1080867096951927</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>5.99810885658933</v>
+        <v>5.9981088565893277</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>0.0572916764310223</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>5.7291676431023675E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>36.4031682551557</v>
+        <v>36.403168255155698</v>
       </c>
       <c r="B8" s="2">
         <v>7</v>
       </c>
       <c r="C8">
-        <v>6.00208422407816</v>
+        <v>6.0020842240781596</v>
       </c>
       <c r="D8">
         <f>C8/C2</f>
-        <v>1.14601374863104</v>
+        <v>1.1460137486310396</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>6.99773114203629</v>
+        <v>6.9977311420362858</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>0.0700506773309678</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>7.0050677330967634E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>41.6033448403463</v>
+        <v>41.603344840346303</v>
       </c>
       <c r="B9" s="2">
         <v>8</v>
       </c>
       <c r="C9">
-        <v>6.24916901190679</v>
+        <v>6.2491690119067904</v>
       </c>
       <c r="D9">
         <f>C9/C2</f>
-        <v>1.19319112124991</v>
+        <v>1.1931911212499124</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>7.99735396000687</v>
+        <v>7.9973539600068744</v>
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>0.0849552309985411</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>8.4955230998542131E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>46.8035185043099</v>
+        <v>46.803518504309899</v>
       </c>
       <c r="B10" s="2">
         <v>9</v>
       </c>
       <c r="C10">
-        <v>6.55546580296553</v>
+        <v>6.5554658029655304</v>
       </c>
       <c r="D10">
         <f>C10/C2</f>
@@ -4079,37 +3492,37 @@
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>8.996976216434</v>
+        <v>8.9969762164339979</v>
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>0.102181793251595</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.10218179325159549</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>52.0037000277511</v>
+        <v>52.003700027751101</v>
       </c>
       <c r="B11" s="2">
         <v>10</v>
       </c>
       <c r="C11">
-        <v>6.93641414484337</v>
+        <v>6.9364141448433703</v>
       </c>
       <c r="D11">
         <f>C11/C2</f>
-        <v>1.32441093450504</v>
+        <v>1.3244109345050408</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>9.99659998367773</v>
+        <v>9.9965999836777311</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>0.122040781392909</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.12204078139290886</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>57.2038463254747</v>
       </c>
@@ -4117,30 +3530,30 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>7.41307626141727</v>
+        <v>7.4130762614172703</v>
       </c>
       <c r="D12">
         <f>C12/C2</f>
-        <v>1.41542287613256</v>
+        <v>1.4154228761325609</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>10.99621697953</v>
+        <v>10.996216979530047</v>
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>0.144909657802776</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.14490965780277612</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>62.4040213612127</v>
+        <v>62.404021361212699</v>
       </c>
       <c r="B13" s="2">
         <v>12</v>
       </c>
       <c r="C13" s="5">
-        <v>8.01887580690267</v>
+        <v>8.0188758069026704</v>
       </c>
       <c r="D13">
         <f>C13/C2</f>
@@ -4148,62 +3561,62 @@
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>11.9958394996515</v>
+        <v>11.995839499651483</v>
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>0.171451321116175</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.17145132111617453</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>67.6042123712682</v>
+        <v>67.604212371268204</v>
       </c>
       <c r="B14" s="2">
         <v>13</v>
       </c>
       <c r="C14">
-        <v>8.80419442513417</v>
+        <v>8.8041944251341704</v>
       </c>
       <c r="D14">
         <f>C14/C2</f>
-        <v>1.6810373663782</v>
+        <v>1.6810373663782032</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>12.9954650904941</v>
+        <v>12.995465090494083</v>
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
-        <v>0.202530995164984</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.2025309951649843</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>72.8043897106839</v>
+        <v>72.804389710683907</v>
       </c>
       <c r="B15" s="2">
         <v>14</v>
       </c>
       <c r="C15">
-        <v>9.85225222766101</v>
+        <v>9.8522522276610101</v>
       </c>
       <c r="D15">
         <f>C15/C2</f>
-        <v>1.8811492952041</v>
+        <v>1.8811492952041045</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>13.9950880534483</v>
+        <v>13.995088053448328</v>
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
-        <v>0.239466927342559</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>0.23946692734256031</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>78.0045507265006</v>
+        <v>78.004550726500597</v>
       </c>
       <c r="B16" s="2">
         <v>15</v>
@@ -4213,20 +3626,20 @@
       </c>
       <c r="D16">
         <f>C16/C3</f>
-        <v>2.12214712012837</v>
+        <v>2.1221471201283681</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>14.9947078785395</v>
+        <v>14.994707878539506</v>
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
-        <v>0.277884961558694</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.27788496155869341</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>83.2047485330715</v>
+        <v>83.204748533071495</v>
       </c>
       <c r="B17" s="2">
         <v>16</v>
@@ -4236,30 +3649,31 @@
       </c>
       <c r="D17">
         <f>C17/C4</f>
-        <v>2.47981426843359</v>
+        <v>2.4798142684335951</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>15.9943347758669</v>
+        <v>15.994334775866944</v>
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
-        <v>0.32759986155954</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>0.32759986155954068</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>88.4048904736171</v>
+        <v>88.404890473617101</v>
       </c>
       <c r="B18" s="2">
         <v>17</v>
       </c>
       <c r="C18">
-        <v>16.9860475633903</v>
+        <v>16.986047563390301</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>